--- a/curr_alcs.xlsx
+++ b/curr_alcs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cnrdxn/home/fun/rach/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cnrdxn/home/rach/rach-shooter-model/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7223B898-5ADE-1249-BF62-EE24456313A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78B2EF8E-19E0-A246-A466-FB8D3E5E0062}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" xr2:uid="{8ACA934B-D9C2-7D4F-98D2-376E1E7F70D9}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{8ACA934B-D9C2-7D4F-98D2-376E1E7F70D9}"/>
   </bookViews>
   <sheets>
     <sheet name="alcs_w_new" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="97">
   <si>
     <t>rank</t>
   </si>
@@ -247,9 +247,6 @@
     <t>pink whitney</t>
   </si>
   <si>
-    <t>truly strawberry lemondade</t>
-  </si>
-  <si>
     <t>rumchata</t>
   </si>
   <si>
@@ -260,6 +257,75 @@
   </si>
   <si>
     <t>if_cinnamon</t>
+  </si>
+  <si>
+    <t>crown black</t>
+  </si>
+  <si>
+    <t>makers mark</t>
+  </si>
+  <si>
+    <t>titos</t>
+  </si>
+  <si>
+    <t>makers_mark</t>
+  </si>
+  <si>
+    <t>western_son</t>
+  </si>
+  <si>
+    <t>deep eddy sweet tea</t>
+  </si>
+  <si>
+    <t>deep_eddy</t>
+  </si>
+  <si>
+    <t>campo bravo plato tequila</t>
+  </si>
+  <si>
+    <t>campo_bravo</t>
+  </si>
+  <si>
+    <t>tequila rose strawberry cream</t>
+  </si>
+  <si>
+    <t>pink</t>
+  </si>
+  <si>
+    <t>tequila_rose</t>
+  </si>
+  <si>
+    <t>seagrams 7</t>
+  </si>
+  <si>
+    <t>seagrams</t>
+  </si>
+  <si>
+    <t>bacardi superior</t>
+  </si>
+  <si>
+    <t>bacardi</t>
+  </si>
+  <si>
+    <t>western son peach</t>
+  </si>
+  <si>
+    <t>kahlua</t>
+  </si>
+  <si>
+    <t>truly strawberry lemonade</t>
+  </si>
+  <si>
+    <t>ole smoky moonshine banana</t>
+  </si>
+  <si>
+    <t>southern comfort pepper</t>
+  </si>
+  <si>
+    <t>if_cream</t>
+  </si>
+  <si>
+    <t>if_pepper</t>
   </si>
 </sst>
 </file>
@@ -612,10 +678,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0EF82E5-DA54-2D48-BC9F-3BF9FDF0693A}">
-  <dimension ref="A1:K36"/>
+  <dimension ref="A1:M50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -627,13 +694,13 @@
     <col min="5" max="5" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.83203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.6640625" customWidth="1"/>
-    <col min="9" max="9" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.83203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="13.6640625" customWidth="1"/>
+    <col min="11" max="11" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.83203125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -656,19 +723,25 @@
         <v>32</v>
       </c>
       <c r="H1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I1" t="s">
+        <v>95</v>
+      </c>
+      <c r="J1" t="s">
+        <v>96</v>
+      </c>
+      <c r="K1" t="s">
         <v>2</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -693,17 +766,23 @@
       <c r="H2">
         <v>0</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2" t="s">
         <v>5</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -728,17 +807,23 @@
       <c r="H3">
         <v>0</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3" t="s">
         <v>5</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -763,17 +848,23 @@
       <c r="H4">
         <v>0</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4" t="s">
         <v>5</v>
       </c>
-      <c r="J4" t="s">
+      <c r="L4" t="s">
         <v>3</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -798,17 +889,23 @@
       <c r="H5">
         <v>0</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5" t="s">
         <v>5</v>
       </c>
-      <c r="J5" t="s">
+      <c r="L5" t="s">
         <v>14</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="M5" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -833,34 +930,40 @@
       <c r="H6">
         <v>0</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6" t="s">
         <v>5</v>
       </c>
-      <c r="J6" t="s">
+      <c r="L6" t="s">
         <v>13</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="M6" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="C7">
-        <v>0.17</v>
+        <v>0.13</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -868,25 +971,31 @@
       <c r="H7">
         <v>0</v>
       </c>
-      <c r="I7" t="s">
-        <v>5</v>
-      </c>
-      <c r="J7" t="s">
-        <v>3</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7" t="s">
+        <v>53</v>
+      </c>
+      <c r="L7" t="s">
+        <v>71</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8">
-        <v>0.3</v>
+        <v>0.17</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -903,25 +1012,31 @@
       <c r="H8">
         <v>0</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8" t="s">
         <v>5</v>
       </c>
-      <c r="J8" t="s">
-        <v>21</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" t="s">
+        <v>3</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C9">
-        <v>0.17</v>
+        <v>0.3</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -930,7 +1045,7 @@
         <v>1</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -938,25 +1053,31 @@
       <c r="H9">
         <v>0</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9" t="s">
         <v>5</v>
       </c>
-      <c r="J9" t="s">
-        <v>23</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" t="s">
+        <v>21</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C10">
-        <v>0.35</v>
+        <v>0.17</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -973,22 +1094,28 @@
       <c r="H10">
         <v>0</v>
       </c>
-      <c r="I10" t="s">
-        <v>25</v>
-      </c>
-      <c r="J10" t="s">
-        <v>26</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10" t="s">
+        <v>5</v>
+      </c>
+      <c r="L10" t="s">
+        <v>23</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C11">
         <v>0.35</v>
@@ -1008,22 +1135,28 @@
       <c r="H11">
         <v>0</v>
       </c>
-      <c r="I11" t="s">
-        <v>5</v>
-      </c>
-      <c r="J11" t="s">
-        <v>3</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L11" t="s">
+        <v>26</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C12">
         <v>0.35</v>
@@ -1032,7 +1165,7 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -1043,28 +1176,34 @@
       <c r="H12">
         <v>0</v>
       </c>
-      <c r="I12" t="s">
-        <v>25</v>
-      </c>
-      <c r="J12" t="s">
-        <v>26</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12" t="s">
+        <v>5</v>
+      </c>
+      <c r="L12" t="s">
+        <v>3</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C13">
         <v>0.35</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1078,34 +1217,40 @@
       <c r="H13">
         <v>0</v>
       </c>
-      <c r="I13" t="s">
-        <v>31</v>
-      </c>
-      <c r="J13" t="s">
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13" t="s">
+        <v>25</v>
+      </c>
+      <c r="L13" t="s">
         <v>26</v>
       </c>
-      <c r="K13" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M13" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C14">
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -1113,25 +1258,31 @@
       <c r="H14">
         <v>0</v>
       </c>
-      <c r="I14" t="s">
-        <v>5</v>
-      </c>
-      <c r="J14" t="s">
-        <v>3</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14" t="s">
+        <v>31</v>
+      </c>
+      <c r="L14" t="s">
+        <v>26</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>83</v>
       </c>
       <c r="C15">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -1148,34 +1299,40 @@
       <c r="H15">
         <v>0</v>
       </c>
-      <c r="I15" t="s">
-        <v>5</v>
-      </c>
-      <c r="J15" t="s">
-        <v>23</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15" t="s">
+        <v>53</v>
+      </c>
+      <c r="L15" t="s">
+        <v>84</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C16">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -1183,31 +1340,37 @@
       <c r="H16">
         <v>0</v>
       </c>
-      <c r="I16" t="s">
-        <v>37</v>
-      </c>
-      <c r="J16" t="s">
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16" t="s">
+        <v>5</v>
+      </c>
+      <c r="L16" t="s">
         <v>3</v>
       </c>
-      <c r="K16" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M16" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="C17">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -1218,31 +1381,37 @@
       <c r="H17">
         <v>0</v>
       </c>
-      <c r="I17" t="s">
-        <v>37</v>
-      </c>
-      <c r="J17" t="s">
-        <v>3</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17" t="s">
+        <v>5</v>
+      </c>
+      <c r="L17" t="s">
+        <v>14</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C18">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1253,34 +1422,40 @@
       <c r="H18">
         <v>0</v>
       </c>
-      <c r="I18" t="s">
-        <v>37</v>
-      </c>
-      <c r="J18" t="s">
-        <v>26</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18" t="s">
+        <v>5</v>
+      </c>
+      <c r="L18" t="s">
+        <v>23</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="C19">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1288,63 +1463,75 @@
       <c r="H19">
         <v>0</v>
       </c>
-      <c r="I19" t="s">
-        <v>37</v>
-      </c>
-      <c r="J19" t="s">
-        <v>26</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19" t="s">
+        <v>5</v>
+      </c>
+      <c r="L19" t="s">
+        <v>13</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C20">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
-      <c r="I20" t="s">
-        <v>43</v>
-      </c>
-      <c r="J20" t="s">
-        <v>44</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20" t="s">
+        <v>37</v>
+      </c>
+      <c r="L20" t="s">
+        <v>3</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C21">
-        <v>0.35</v>
+        <v>0.4</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1353,33 +1540,39 @@
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
-      <c r="I21" t="s">
-        <v>53</v>
-      </c>
-      <c r="J21" t="s">
-        <v>46</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21" t="s">
+        <v>37</v>
+      </c>
+      <c r="L21" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C22">
-        <v>0.35</v>
+        <v>0.4</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1393,28 +1586,34 @@
       <c r="H22">
         <v>0</v>
       </c>
-      <c r="I22" t="s">
-        <v>5</v>
-      </c>
-      <c r="J22" t="s">
-        <v>3</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22" t="s">
+        <v>37</v>
+      </c>
+      <c r="L22" t="s">
+        <v>26</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C23">
-        <v>0.35</v>
+        <v>0.4</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1428,22 +1627,28 @@
       <c r="H23">
         <v>0</v>
       </c>
-      <c r="I23" t="s">
-        <v>25</v>
-      </c>
-      <c r="J23" t="s">
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23" t="s">
+        <v>37</v>
+      </c>
+      <c r="L23" t="s">
         <v>26</v>
       </c>
-      <c r="K23" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M23" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="C24">
         <v>0.35</v>
@@ -1461,33 +1666,39 @@
         <v>1</v>
       </c>
       <c r="H24">
-        <v>1</v>
-      </c>
-      <c r="I24" t="s">
-        <v>53</v>
-      </c>
-      <c r="J24" t="s">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24" t="s">
+        <v>5</v>
+      </c>
+      <c r="L24" t="s">
         <v>26</v>
       </c>
-      <c r="K24" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M24" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="C25">
-        <v>0.33</v>
+        <v>0.495</v>
       </c>
       <c r="D25">
         <v>1</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -1498,60 +1709,72 @@
       <c r="H25">
         <v>0</v>
       </c>
-      <c r="I25" t="s">
-        <v>25</v>
-      </c>
-      <c r="J25" t="s">
-        <v>26</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25" t="s">
+        <v>53</v>
+      </c>
+      <c r="L25" t="s">
+        <v>21</v>
+      </c>
+      <c r="M25" s="1">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C26">
-        <v>0.35</v>
+        <v>0.2</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26">
         <v>0</v>
       </c>
       <c r="G26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26">
         <v>0</v>
       </c>
-      <c r="I26" t="s">
-        <v>5</v>
-      </c>
-      <c r="J26" t="s">
-        <v>3</v>
-      </c>
-      <c r="K26" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26" t="s">
+        <v>43</v>
+      </c>
+      <c r="L26" t="s">
+        <v>44</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="C27">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -1563,33 +1786,39 @@
         <v>0</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27">
         <v>0</v>
       </c>
-      <c r="I27" t="s">
+      <c r="I27">
+        <v>1</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27" t="s">
         <v>53</v>
       </c>
-      <c r="J27" t="s">
-        <v>13</v>
-      </c>
-      <c r="K27" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L27" t="s">
+        <v>26</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="C28">
-        <v>0.47</v>
+        <v>0.4</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1598,68 +1827,80 @@
         <v>0</v>
       </c>
       <c r="G28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28">
-        <v>0</v>
-      </c>
-      <c r="I28" t="s">
-        <v>55</v>
-      </c>
-      <c r="J28" t="s">
+        <v>1</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28" t="s">
+        <v>25</v>
+      </c>
+      <c r="L28" t="s">
+        <v>26</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>90</v>
+      </c>
+      <c r="C29">
+        <v>0.3</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29" t="s">
+        <v>5</v>
+      </c>
+      <c r="L29" t="s">
         <v>3</v>
       </c>
-      <c r="K28" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>-1</v>
-      </c>
-      <c r="B29" t="s">
-        <v>64</v>
-      </c>
-      <c r="C29">
-        <v>0.4</v>
-      </c>
-      <c r="D29">
-        <v>1</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29">
-        <v>0</v>
-      </c>
-      <c r="G29">
-        <v>1</v>
-      </c>
-      <c r="H29">
-        <v>1</v>
-      </c>
-      <c r="I29" t="s">
-        <v>25</v>
-      </c>
-      <c r="J29" t="s">
-        <v>26</v>
-      </c>
-      <c r="K29" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M29" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>-1</v>
+        <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="C30">
         <v>0.35</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1668,202 +1909,238 @@
         <v>0</v>
       </c>
       <c r="G30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H30">
         <v>0</v>
       </c>
-      <c r="I30" t="s">
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30" t="s">
+        <v>53</v>
+      </c>
+      <c r="L30" t="s">
+        <v>46</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>47</v>
+      </c>
+      <c r="C31">
+        <v>0.35</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31" t="s">
         <v>5</v>
       </c>
-      <c r="J30" t="s">
+      <c r="L31" t="s">
         <v>3</v>
       </c>
-      <c r="K30" s="1" t="s">
+      <c r="M31" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <v>-1</v>
-      </c>
-      <c r="B31" t="s">
-        <v>66</v>
-      </c>
-      <c r="C31">
-        <v>0.495</v>
-      </c>
-      <c r="D31">
-        <v>1</v>
-      </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-      <c r="F31">
-        <v>0</v>
-      </c>
-      <c r="G31">
-        <v>1</v>
-      </c>
-      <c r="H31">
-        <v>0</v>
-      </c>
-      <c r="I31" t="s">
-        <v>53</v>
-      </c>
-      <c r="J31" t="s">
-        <v>21</v>
-      </c>
-      <c r="K31" s="1">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>-1</v>
+        <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="C32">
+        <v>0.4</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32" t="s">
+        <v>37</v>
+      </c>
+      <c r="L32" t="s">
+        <v>3</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>72</v>
+      </c>
+      <c r="C33">
+        <v>0.35</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33" t="s">
+        <v>5</v>
+      </c>
+      <c r="L33" t="s">
+        <v>3</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>93</v>
+      </c>
+      <c r="C34">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34" t="s">
+        <v>43</v>
+      </c>
+      <c r="L34" t="s">
+        <v>71</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>92</v>
+      </c>
+      <c r="C35">
         <v>0.3</v>
       </c>
-      <c r="D32">
-        <v>1</v>
-      </c>
-      <c r="E32">
-        <v>1</v>
-      </c>
-      <c r="F32">
-        <v>0</v>
-      </c>
-      <c r="G32">
-        <v>1</v>
-      </c>
-      <c r="H32">
-        <v>0</v>
-      </c>
-      <c r="I32" t="s">
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35" t="s">
         <v>5</v>
       </c>
-      <c r="J32" t="s">
+      <c r="L35" t="s">
         <v>14</v>
       </c>
-      <c r="K32" s="1" t="s">
+      <c r="M35" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A33">
-        <v>-1</v>
-      </c>
-      <c r="B33" t="s">
-        <v>69</v>
-      </c>
-      <c r="C33">
-        <v>0.3</v>
-      </c>
-      <c r="D33">
-        <v>1</v>
-      </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="G33">
-        <v>1</v>
-      </c>
-      <c r="H33">
-        <v>0</v>
-      </c>
-      <c r="I33" t="s">
-        <v>5</v>
-      </c>
-      <c r="J33" t="s">
-        <v>13</v>
-      </c>
-      <c r="K33" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A34">
-        <v>-1</v>
-      </c>
-      <c r="B34" t="s">
-        <v>70</v>
-      </c>
-      <c r="C34">
-        <v>0.3</v>
-      </c>
-      <c r="D34">
-        <v>1</v>
-      </c>
-      <c r="E34">
-        <v>1</v>
-      </c>
-      <c r="F34">
-        <v>1</v>
-      </c>
-      <c r="G34">
-        <v>1</v>
-      </c>
-      <c r="H34">
-        <v>0</v>
-      </c>
-      <c r="I34" t="s">
-        <v>5</v>
-      </c>
-      <c r="J34" t="s">
-        <v>14</v>
-      </c>
-      <c r="K34" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A35">
-        <v>-1</v>
-      </c>
-      <c r="B35" t="s">
-        <v>71</v>
-      </c>
-      <c r="C35">
-        <v>0.13</v>
-      </c>
-      <c r="D35">
-        <v>1</v>
-      </c>
-      <c r="E35">
-        <v>0</v>
-      </c>
-      <c r="F35">
-        <v>0</v>
-      </c>
-      <c r="G35">
-        <v>1</v>
-      </c>
-      <c r="H35">
-        <v>0</v>
-      </c>
-      <c r="I35" t="s">
-        <v>53</v>
-      </c>
-      <c r="J35" t="s">
-        <v>72</v>
-      </c>
-      <c r="K35" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>-1</v>
+        <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>73</v>
+        <v>48</v>
       </c>
       <c r="C36">
         <v>0.35</v>
@@ -1872,10 +2149,10 @@
         <v>1</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G36">
         <v>1</v>
@@ -1883,14 +2160,512 @@
       <c r="H36">
         <v>0</v>
       </c>
-      <c r="I36" t="s">
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36" t="s">
+        <v>25</v>
+      </c>
+      <c r="L36" t="s">
+        <v>26</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>49</v>
+      </c>
+      <c r="C37">
+        <v>0.35</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37" t="s">
+        <v>53</v>
+      </c>
+      <c r="L37" t="s">
+        <v>26</v>
+      </c>
+      <c r="M37" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>50</v>
+      </c>
+      <c r="C38">
+        <v>0.33</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+      <c r="H38">
+        <v>1</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38" t="s">
+        <v>25</v>
+      </c>
+      <c r="L38" t="s">
+        <v>26</v>
+      </c>
+      <c r="M38" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>74</v>
+      </c>
+      <c r="C39">
+        <v>0.45</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39" t="s">
+        <v>25</v>
+      </c>
+      <c r="L39" t="s">
+        <v>26</v>
+      </c>
+      <c r="M39" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>75</v>
+      </c>
+      <c r="C40">
+        <v>0.45</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40" t="s">
         <v>5</v>
       </c>
-      <c r="J36" t="s">
+      <c r="L40" t="s">
+        <v>26</v>
+      </c>
+      <c r="M40" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>51</v>
+      </c>
+      <c r="C41">
+        <v>0.35</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>1</v>
+      </c>
+      <c r="K41" t="s">
+        <v>5</v>
+      </c>
+      <c r="L41" t="s">
         <v>3</v>
       </c>
-      <c r="K36" s="1" t="s">
+      <c r="M41" s="1" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>52</v>
+      </c>
+      <c r="C42">
+        <v>0.24</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42" t="s">
+        <v>53</v>
+      </c>
+      <c r="L42" t="s">
+        <v>13</v>
+      </c>
+      <c r="M42" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>54</v>
+      </c>
+      <c r="C43">
+        <v>0.47</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43" t="s">
+        <v>55</v>
+      </c>
+      <c r="L43" t="s">
+        <v>3</v>
+      </c>
+      <c r="M43" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>0</v>
+      </c>
+      <c r="B46" t="s">
+        <v>94</v>
+      </c>
+      <c r="C46">
+        <v>0.35</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>1</v>
+      </c>
+      <c r="K46" t="s">
+        <v>25</v>
+      </c>
+      <c r="L46" t="s">
+        <v>26</v>
+      </c>
+      <c r="M46" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>-1</v>
+      </c>
+      <c r="B47" t="s">
+        <v>9</v>
+      </c>
+      <c r="C47">
+        <v>0.35</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>1</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47" t="s">
+        <v>5</v>
+      </c>
+      <c r="L47" t="s">
+        <v>3</v>
+      </c>
+      <c r="M47" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>-1</v>
+      </c>
+      <c r="B48" t="s">
+        <v>76</v>
+      </c>
+      <c r="C48">
+        <v>0.4</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48" t="s">
+        <v>5</v>
+      </c>
+      <c r="L48" t="s">
+        <v>3</v>
+      </c>
+      <c r="M48" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>-1</v>
+      </c>
+      <c r="B49" t="s">
+        <v>86</v>
+      </c>
+      <c r="C49">
+        <v>0.4</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>1</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49" t="s">
+        <v>25</v>
+      </c>
+      <c r="L49" t="s">
+        <v>26</v>
+      </c>
+      <c r="M49" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>-1</v>
+      </c>
+      <c r="B50" t="s">
+        <v>88</v>
+      </c>
+      <c r="C50">
+        <v>0.4</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>1</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50" t="s">
+        <v>31</v>
+      </c>
+      <c r="L50" t="s">
+        <v>3</v>
+      </c>
+      <c r="M50" s="1" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
